--- a/5. Python for Data Engineering/data/sample-xlsx-file-modifeid.xlsx
+++ b/5. Python for Data Engineering/data/sample-xlsx-file-modifeid.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,25 +440,30 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Date Of Birth</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Salary</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Department</t>
         </is>
@@ -468,23 +473,26 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Rajeev Singh</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>rajeev@example.com</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="E2" s="2" t="n">
         <v>33806</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1500000</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Software Engineering</t>
         </is>
@@ -494,23 +502,26 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>John Doe</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>john@example.com</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="E3" s="2" t="n">
         <v>23755</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1300000</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
@@ -520,23 +531,26 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Jack Sparrow</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>jack@example.com</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="E4" s="2" t="n">
         <v>31765</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1000000</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>HR</t>
         </is>
@@ -546,23 +560,26 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Steven Cook</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>steven@example.com</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="E5" s="2" t="n">
         <v>34458</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1200000</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
